--- a/03 PE/009 导出表.xlsx
+++ b/03 PE/009 导出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA68C2E-AA63-4BF2-B675-399BB32DEF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F3B7D-BBF4-45C6-A9E1-574546D7B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="860">
   <si>
     <t>导出表：</t>
   </si>
@@ -2618,6 +2618,10 @@
   </si>
   <si>
     <t>return (char*)(&amp;file_buffer[RVAtoFOA((__int64)ptr_fun_addr[fun_ord],file_buffer)]);</t>
+  </si>
+  <si>
+    <t>序号表其实是给函数名字表用的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3994,8 +3998,8 @@
   </sheetPr>
   <dimension ref="B4:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4078,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A4:L171"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4303,7 +4307,12 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">

--- a/03 PE/009 导出表.xlsx
+++ b/03 PE/009 导出表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122F3B7D-BBF4-45C6-A9E1-574546D7B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD23B8C-5070-4549-975D-7BCC3CFC831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="861">
   <si>
     <t>导出表：</t>
   </si>
@@ -2621,6 +2621,10 @@
   </si>
   <si>
     <t>序号表其实是给函数名字表用的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出表结构体及其函数地址表、序数表、函数名表、函数名内容可能都在一块内存。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2638,6 +2642,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2645,6 +2650,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2652,11 +2658,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3998,8 +4006,8 @@
   </sheetPr>
   <dimension ref="B4:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4047,6 +4055,22 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -4069,9 +4093,9 @@
     <hyperlink ref="G11:M11" location="getFunAddrByOrdinal.cpp!A1" display="3、GetFunctionAddrByOrdinals(FileBuffer指针，函数名导出序号)" xr:uid="{2D622778-A273-4A5B-9D66-11EB19AF3E0A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4082,8 +4106,8 @@
   </sheetPr>
   <dimension ref="A4:L171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:L39"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
